--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123706.5301162414</v>
+        <v>137432.8882536596</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685538</v>
+        <v>-22876.85944685539</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685538</v>
+        <v>-22876.85944685539</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685538</v>
+        <v>-22876.85944685539</v>
       </c>
       <c r="E6" t="n">
-        <v>-82260.11536569768</v>
+        <v>-82260.11536569774</v>
       </c>
       <c r="F6" t="n">
         <v>50839.88463430231</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137432.8882536596</v>
+        <v>12322.98945618293</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685539</v>
+        <v>-38027.5334168901</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685539</v>
+        <v>-38027.53341689015</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685539</v>
+        <v>-38027.53341689015</v>
       </c>
       <c r="E6" t="n">
-        <v>-82260.11536569774</v>
+        <v>-97070.13220481164</v>
       </c>
       <c r="F6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="G6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="H6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="I6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="J6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="K6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="L6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="M6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="N6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="O6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
       <c r="P6" t="n">
-        <v>50839.88463430231</v>
+        <v>36029.8677951884</v>
       </c>
     </row>
   </sheetData>
